--- a/resources/cloud.gov-CIS-Worksheet.xlsx
+++ b/resources/cloud.gov-CIS-Worksheet.xlsx
@@ -28577,13 +28577,13 @@
       <c r="A611" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="B611" s="15"/>
+      <c r="B611" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C611" s="16"/>
       <c r="D611" s="16"/>
       <c r="E611" s="16"/>
-      <c r="F611" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="F611" s="21"/>
       <c r="G611" s="18"/>
       <c r="H611" s="15" t="s">
         <v>17</v>
@@ -28618,13 +28618,13 @@
       <c r="A612" s="14" t="s">
         <v>625</v>
       </c>
-      <c r="B612" s="15"/>
+      <c r="B612" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C612" s="16"/>
       <c r="D612" s="16"/>
       <c r="E612" s="16"/>
-      <c r="F612" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="F612" s="21"/>
       <c r="G612" s="18"/>
       <c r="H612" s="15" t="s">
         <v>17</v>
@@ -28659,13 +28659,13 @@
       <c r="A613" s="14" t="s">
         <v>626</v>
       </c>
-      <c r="B613" s="15"/>
+      <c r="B613" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C613" s="16"/>
       <c r="D613" s="16"/>
       <c r="E613" s="16"/>
-      <c r="F613" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="F613" s="21"/>
       <c r="G613" s="18"/>
       <c r="H613" s="15" t="s">
         <v>17</v>
@@ -28700,20 +28700,19 @@
       <c r="A614" s="14" t="s">
         <v>627</v>
       </c>
-      <c r="B614" s="15"/>
+      <c r="B614" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="C614" s="16"/>
       <c r="D614" s="16"/>
       <c r="E614" s="16"/>
-      <c r="F614" s="21" t="s">
-        <v>17</v>
-      </c>
+      <c r="F614" s="21"/>
       <c r="G614" s="18"/>
-      <c r="H614" s="15"/>
+      <c r="H614" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I614" s="15"/>
       <c r="J614" s="16"/>
-      <c r="K614" s="15" t="s">
-        <v>17</v>
-      </c>
       <c r="L614" s="15"/>
       <c r="M614" s="19"/>
       <c r="N614" s="20"/>
